--- a/dev/Tutorials/3MKT/outputs/3mkt-03.xlsx
+++ b/dev/Tutorials/3MKT/outputs/3mkt-03.xlsx
@@ -29603,7 +29603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29669,25 +29669,40 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>cp_sold</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_revenue</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>avg_price</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>yield</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rasm</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>sys_lf</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>local_pct_leg_pax</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>local_pct_bookings</t>
         </is>
@@ -29732,18 +29747,27 @@
         <v>388.0825</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>305.4601674400058</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.1674357086060602</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>0.149229765295366</v>
+      </c>
+      <c r="Q2" t="n">
         <v>89.12660658693251</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>48.62142714500138</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>65.42990210632853</v>
       </c>
     </row>
@@ -29786,18 +29810,27 @@
         <v>388.083125</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>305.8292624225118</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.1675903656090715</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0.1493388460214256</v>
+      </c>
+      <c r="Q3" t="n">
         <v>89.10944580774996</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>48.5503266858099</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>65.36549298675843</v>
       </c>
     </row>
@@ -94443,7 +94476,7 @@
         <v>250</v>
       </c>
       <c r="F2" t="n">
-        <v>1013.955176526716</v>
+        <v>863.7532821438833</v>
       </c>
       <c r="G2" t="n">
         <v>113770</v>
@@ -94479,7 +94512,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>1013.955176526716</v>
+        <v>863.7532821438833</v>
       </c>
       <c r="G3" t="n">
         <v>144961</v>
@@ -94523,7 +94556,7 @@
         <v>375</v>
       </c>
       <c r="F4" t="n">
-        <v>1828.850979200696</v>
+        <v>1739.79933695373</v>
       </c>
       <c r="G4" t="n">
         <v>195158</v>
@@ -94559,7 +94592,7 @@
         <v>150</v>
       </c>
       <c r="F5" t="n">
-        <v>1828.850979200696</v>
+        <v>1739.79933695373</v>
       </c>
       <c r="G5" t="n">
         <v>244621</v>
@@ -94603,7 +94636,7 @@
         <v>500</v>
       </c>
       <c r="F6" t="n">
-        <v>2836.153092488361</v>
+        <v>2603.449105297987</v>
       </c>
       <c r="G6" t="n">
         <v>161843</v>
@@ -94639,7 +94672,7 @@
         <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>2836.153092488361</v>
+        <v>2603.449105297987</v>
       </c>
       <c r="G7" t="n">
         <v>226585</v>
